--- a/fuentes/contenidos/grado09/guion08/Escaleta_CN_09_08_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion08/Escaleta_CN_09_08_CO.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado09\guion08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Planeta\09_08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="CN_09_08_CO" sheetId="2" r:id="rId1"/>
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CN_09_08_CO!$A$2:$U$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CN_09_08_CO!$A$2:$U$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="214">
   <si>
     <t>Asignatura</t>
   </si>
@@ -413,9 +413,6 @@
     <t>Consolidación</t>
   </si>
   <si>
-    <t>Los factores históricos</t>
-  </si>
-  <si>
     <t>La dispersión</t>
   </si>
   <si>
@@ -428,85 +425,229 @@
     <t>Las glaciaciones</t>
   </si>
   <si>
-    <t>La competencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los factores bióticos </t>
-  </si>
-  <si>
     <t>Los reinos biogeográficos</t>
   </si>
   <si>
-    <t>Interactivo en que se visualizan y describen los reinos biogeográficos de Wallace</t>
-  </si>
-  <si>
     <t>Competencias</t>
   </si>
   <si>
+    <t>Fin de unidad</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recursos M</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso M10A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>Recurso M5D-01</t>
+  </si>
+  <si>
+    <t>Recurso F6-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-03</t>
+  </si>
+  <si>
+    <t>Recurso M101A-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoevaluación </t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: La Biogeografía</t>
+  </si>
+  <si>
+    <t>Actividad que consolida conocimientos sobre La Biogeografía</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Las divisiones biogeográficas y ecológicas del Planeta</t>
+  </si>
+  <si>
+    <t>Actividad que consolida conocimientos sobre Las divisiones biogeográficas y ecológicas del Planeta</t>
+  </si>
+  <si>
+    <t>Los fósiles y la deriva continental</t>
+  </si>
+  <si>
+    <t>Recurso F8-02</t>
+  </si>
+  <si>
+    <t>http://www.zoowebplus.com/animales/?animal=tucanes</t>
+  </si>
+  <si>
+    <t>La distribución de los seres vivos en el planeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa conceptual sobre La distribución de los seres vivos en el planeta </t>
+  </si>
+  <si>
+    <t>Evalúa tus conocimientos sobre el tema La distribución de los seres vivos en el planeta</t>
+  </si>
+  <si>
+    <t>Banco de actividades: La distribución de los seres vivos en el planeta</t>
+  </si>
+  <si>
+    <t>Motor que incluye preguntas de respuesta abierta del tema La distribución de los seres vivos en el planeta</t>
+  </si>
+  <si>
+    <t>Las especies endémicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las especies endémicas y las cosmopolitas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué es la Biogeografía?  </t>
+  </si>
+  <si>
+    <t>Contribuciones del desarrollo de la Biogeografía</t>
+  </si>
+  <si>
+    <t>Los trabajos de De Candolle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La  línea de Wallace </t>
+  </si>
+  <si>
+    <t>Biogeografía y algunas contribuciones históricas a su desarrollo</t>
+  </si>
+  <si>
+    <t>Distribución de los organismos</t>
+  </si>
+  <si>
+    <t>Especies endémicas y cosmopolitas</t>
+  </si>
+  <si>
+    <t>Especies cosmopolitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factores históricos de la Biogeografía </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Gran Intercambio Biótico Americano </t>
+  </si>
+  <si>
+    <t>El surgimiento del istmo de Panamá y sus efectos en la distribución de las especies</t>
+  </si>
+  <si>
+    <t>¿Qué son los refugios del pleistoceno?</t>
+  </si>
+  <si>
+    <t>La Biogeografía y la conservación de los seres vivos</t>
+  </si>
+  <si>
+    <t>Las eco-regiones</t>
+  </si>
+  <si>
+    <t>Alianza para la cero Extinción AZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> las eco-regiones  y la Alianza cero extinción</t>
+  </si>
+  <si>
+    <t>Interactivo con imágenes sobre los pinzones de Darwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo sobre las especies endémicas y su importancia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endemismos </t>
+  </si>
+  <si>
+    <t>Interctivo en el que se muestran los eventos mas importantes de la deriva continental</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Actividad sobre las características y la ubicación geográfica de algunas especies endémicas y cosmopolitas</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: distribución de organismos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: factores históricos de la biogeografía</t>
+  </si>
+  <si>
+    <t>Actividad que consolida conocimientos sobre Los factores históricos de la biogeografía</t>
+  </si>
+  <si>
+    <t>El pasado y su influencia en la distribución de las especies</t>
+  </si>
+  <si>
+    <t>Actividad sobre factores históricos y su influencia en la distribución de las especies</t>
+  </si>
+  <si>
+    <t>Interactivo sobre los refugios del Pleistoceno y su efecto sobre la biodiversidad en Colombia</t>
+  </si>
+  <si>
+    <t>Interactivo en que se visualizan y describen los reinos biogeográficos de Wallace y las eco-regiones</t>
+  </si>
+  <si>
+    <t>Actividad sobre los efectos del surgimiento del istmo de Panamá en la distribución de las especies del continente americano</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-02</t>
+  </si>
+  <si>
+    <t>Recurso F4-01</t>
+  </si>
+  <si>
+    <t>Recurso F8-01</t>
+  </si>
+  <si>
+    <t>Recurso M8A-01</t>
+  </si>
+  <si>
+    <t>Recurso F6-02</t>
+  </si>
+  <si>
+    <t>Actividad sobre las contribuciones históricas más importantes a la Biogeografía</t>
+  </si>
+  <si>
+    <t>Actividad que consolidación conocimientos sobre la distribución de organismos y las especies endemicas y cosmopolitas</t>
+  </si>
+  <si>
+    <t>http://profesores.aulaplaneta.com/AuxPages/RecursoProfesor.aspx?IdGuion=14142&amp;IdRecurso=726826&amp;Transparent=on</t>
+  </si>
+  <si>
+    <t>Actividad sobre las regiones ecológicas y los esfuerzos de conservación</t>
+  </si>
+  <si>
     <t>La distribución geográfica de los tapires</t>
   </si>
   <si>
-    <t>Investigación sobre la rara distribución geográfica de los tapires</t>
-  </si>
-  <si>
-    <t>Fin de unidad</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>Recurso F4-01</t>
-  </si>
-  <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recursos M</t>
-  </si>
-  <si>
-    <t>Recurso M8A-01</t>
-  </si>
-  <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso M10A-01</t>
-  </si>
-  <si>
-    <t>Recurso M102AB-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Recurso M5A-01</t>
-  </si>
-  <si>
-    <t>Recurso M102AB-02</t>
-  </si>
-  <si>
-    <t>Recurso M14A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t>Recurso M5D-01</t>
-  </si>
-  <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
-  </si>
-  <si>
-    <t>Recurso M12A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
+    <t xml:space="preserve">Los  robles de los Andes colombianos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad de investigación sobre la rara distribución geográfica de los tapires </t>
+  </si>
+  <si>
+    <t>Actividad en la que se responde por qué hay robles en los Andes colombianos al igual que en Norteamérica</t>
   </si>
   <si>
     <t>Recurso M102AB-03</t>
@@ -515,212 +656,23 @@
     <t>Recurso M102AB-04</t>
   </si>
   <si>
-    <t xml:space="preserve">Autoevaluación </t>
-  </si>
-  <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101AP-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Biogeografía </t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: La Biogeografía</t>
-  </si>
-  <si>
-    <t>Actividad que consolida conocimientos sobre La Biogeografía</t>
-  </si>
-  <si>
-    <t>Los factores que determinan las zonas de distribución de las especies</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los factores que determinan las zonas de distribución de las especies</t>
-  </si>
-  <si>
-    <t>Actividad que consolida conocimientos sobre Los factores que determinan las zonas de distribución de las especies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las divisiones biogeográficas y ecológicas del Planeta </t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Las divisiones biogeográficas y ecológicas del Planeta</t>
-  </si>
-  <si>
-    <t>Actividad que consolida conocimientos sobre Las divisiones biogeográficas y ecológicas del Planeta</t>
-  </si>
-  <si>
-    <t>Los trabajos de Linnaeus, Buffon y De Candolle</t>
-  </si>
-  <si>
-    <t>Test con imágenes sobre los pinzones de Darwin</t>
-  </si>
-  <si>
-    <t>Los fósiles y la deriva continental</t>
-  </si>
-  <si>
-    <t>Actividad sobre la importancia de los fósiles, como una prueba de la deriva continental</t>
-  </si>
-  <si>
-    <t>Centros de origen de las especies animales y vegetales que constituyen la dieta de los colombianos</t>
-  </si>
-  <si>
-    <t>Actividad en la que se de determinan los centros de origen de las especies animales y vegetales que constituyen la dieta de los colombianos</t>
-  </si>
-  <si>
-    <t>Los centros de origen de algunos alimentos importantes</t>
-  </si>
-  <si>
-    <t>Recurso M9B-01</t>
-  </si>
-  <si>
-    <t>Interactivo sobre las características y la ubicación geográfica de algunas especies endémicas y cosmopolitas</t>
-  </si>
-  <si>
-    <t>Juego del ahorcado sobre las contribuciones históricas más importantes a la Biogeografía</t>
-  </si>
-  <si>
-    <t>Interctivo en el que se muestran los eventos mas iportantes de la deriva continental</t>
-  </si>
-  <si>
-    <t>Los factores históricos que determinan las zonas de distribución de las especies</t>
-  </si>
-  <si>
-    <t>Test con texto largo sobre los factores que determinan las zonas de distribución de las especies</t>
-  </si>
-  <si>
-    <t>http://www.ecologistasenaccion.org/IMG/jpg/centros_diversidad.jpg</t>
-  </si>
-  <si>
-    <t>Interactivo en el que se posicionan en su centro de origen, sobre un mapa, los nombres de algunos alimentos importantes para la humanidad</t>
-  </si>
-  <si>
-    <t>Interacrivo en el que se ordenan secuencialmente los principales eventos de la deriva continental</t>
-  </si>
-  <si>
-    <t>Test sobre las glaciaciones</t>
-  </si>
-  <si>
-    <t>Recurso F6-02</t>
-  </si>
-  <si>
-    <t>Recurso F8-01</t>
-  </si>
-  <si>
-    <t>Recurso F8-02</t>
-  </si>
-  <si>
-    <t>Recurso F8-03</t>
-  </si>
-  <si>
-    <t>http://www.uv.mx/cienciahombre/revistae/vol22num3/articulos/distribucion/     http://www.temaiken.org.ar/uploads/Tapirus_terrestris_Manual.pdf</t>
-  </si>
-  <si>
-    <t>Los equivalentes ecológicos</t>
-  </si>
-  <si>
-    <t>http://www.zoowebplus.com/animales/?animal=tucanes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los tucanes y los calaos </t>
-  </si>
-  <si>
-    <t>Actividad en la que se comprueba por qué los tucanes y los calaos son equivalentes ecológicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El roble de los Andes colombianos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad en la que se responde por qué hay robles en los Andes colombianos </t>
-  </si>
-  <si>
-    <t>Recurso F13-01</t>
+    <t>Recurso M8A-02</t>
   </si>
   <si>
     <t>Recurso M4A-02</t>
   </si>
   <si>
-    <t>Recurso M4A-03</t>
-  </si>
-  <si>
-    <t>Test sobre los equivalentes ecológicos</t>
-  </si>
-  <si>
-    <t>Interactivo sobre los factores históricos que determinan las zonas de distribución de las especies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los aportes de Wallace </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los aportes de Wallace  </t>
-  </si>
-  <si>
-    <t>La distribución de los seres vivos en el planeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapa conceptual sobre La distribución de los seres vivos en el planeta </t>
-  </si>
-  <si>
-    <t>Evalúa tus conocimientos sobre el tema La distribución de los seres vivos en el planeta</t>
-  </si>
-  <si>
-    <t>Banco de actividades: La distribución de los seres vivos en el planeta</t>
-  </si>
-  <si>
-    <t>Motor que incluye preguntas de respuesta abierta del tema La distribución de los seres vivos en el planeta</t>
-  </si>
-  <si>
-    <t>Las regiones ecológicas</t>
-  </si>
-  <si>
-    <t>Interactivo en que se visualizan y describen las regiones ecológicas del planeta Tierra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las regiones ecológicas </t>
-  </si>
-  <si>
-    <t>Los centros de origen y las zonas de distribución de las especies</t>
-  </si>
-  <si>
-    <t>Los centros de origen de las especies</t>
-  </si>
-  <si>
-    <t>Las zonas de distribución de las especies</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los centros de origen y las zonas de distribución de las especies</t>
-  </si>
-  <si>
-    <t>Actividad que consolida conocimientos sobre Los centros de origen y las zonas de distribución de las especies</t>
-  </si>
-  <si>
-    <t>Las especies cosmopolitas</t>
-  </si>
-  <si>
-    <t>Las especies endémicas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las especies endémicas y las cosmopolitas </t>
-  </si>
-  <si>
-    <t>Las contribuciones históricas más importantes a la Biogeografía</t>
-  </si>
-  <si>
-    <t>Interactivo sobre las contribuciones históricas más importantes a la Biogeografía</t>
-  </si>
-  <si>
-    <t>Test con imágenes sobre los aportes de Wallace a la Biogeografía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interactivo sobre las regiones ecológicas, en el que se ubican etiquetas en su respectivo contenedor </t>
+    <t>Las especies sombrilla y sus áreas de distribución</t>
+  </si>
+  <si>
+    <t>Actividad de investigación sobre las especies sombrilla, sus áreas de distribución y su importancia para la conservación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,68 +682,64 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF222222"/>
+      <color indexed="63"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
+      <color indexed="36"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,67 +748,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor indexed="52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor indexed="36"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="20"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +837,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -898,7 +852,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -908,190 +862,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1399,10 +1352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U286"/>
+  <dimension ref="A1:U278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,18 +1365,18 @@
     <col min="3" max="3" width="34.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="43.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="44" style="5" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="19" customWidth="1"/>
     <col min="7" max="7" width="47.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="54" customWidth="1"/>
-    <col min="9" max="9" width="11" style="20" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="51" customWidth="1"/>
+    <col min="9" max="9" width="11" style="19" customWidth="1"/>
     <col min="10" max="10" width="74.5703125" style="5" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="5" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" style="5" customWidth="1"/>
     <col min="14" max="14" width="10.28515625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" style="20" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="20" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" style="19" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="19" customWidth="1"/>
     <col min="18" max="18" width="16.140625" style="5" customWidth="1"/>
     <col min="19" max="19" width="20.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.85546875" style="5" bestFit="1" customWidth="1"/>
@@ -1432,94 +1385,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="L1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="84"/>
-      <c r="O1" s="64" t="s">
+      <c r="N1" s="85"/>
+      <c r="O1" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="86" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="86" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="79"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="72"/>
       <c r="M2" s="4" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="67"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="87"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1529,27 +1482,27 @@
         <v>123</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
+      <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="19"/>
+      <c r="T3" s="18"/>
       <c r="U3" s="17"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1560,772 +1513,664 @@
         <v>123</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="17"/>
-      <c r="R4" s="18"/>
+      <c r="R4" s="17"/>
       <c r="S4" s="17"/>
-      <c r="T4" s="19"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="58" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G5" s="11"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="55"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="18"/>
+      <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="19"/>
+      <c r="T5" s="18"/>
       <c r="U5" s="17"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="58" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="51">
-        <v>1</v>
-      </c>
-      <c r="I6" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>6</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="U6" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="17"/>
+    </row>
+    <row r="7" spans="1:21" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
         <v>122</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="F7" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="H7" s="51">
-        <v>2</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>6</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S7" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="17"/>
+    </row>
+    <row r="8" spans="1:21" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>127</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="51">
-        <v>3</v>
-      </c>
-      <c r="I8" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="48">
+        <v>1</v>
+      </c>
+      <c r="I8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="K8" s="56" t="s">
+      <c r="J8" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="L8" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="40"/>
+      <c r="M8" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="57"/>
+      <c r="O8" s="38"/>
       <c r="P8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="17">
         <v>6</v>
       </c>
-      <c r="R8" s="18" t="s">
-        <v>142</v>
+      <c r="R8" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>193</v>
+        <v>139</v>
+      </c>
+      <c r="T8" s="66" t="s">
+        <v>196</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="58" t="s">
         <v>122</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>127</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H9" s="51">
-        <v>4</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="K9" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="48">
+        <v>2</v>
+      </c>
+      <c r="I9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="J9" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="60"/>
-      <c r="O9" s="40"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="38"/>
       <c r="P9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q9" s="17">
         <v>6</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="T9" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="49">
+        <v>3</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="31">
+        <v>6</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="T10" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="S9" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="U10" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H10" s="51">
+      <c r="C11" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="45"/>
+    </row>
+    <row r="12" spans="1:21" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="45"/>
+    </row>
+    <row r="13" spans="1:21" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="50">
+        <v>4</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="O10" s="40"/>
-      <c r="P10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>6</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="T10" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="52">
-        <v>6</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="40"/>
-      <c r="P11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="32">
-        <v>6</v>
-      </c>
-      <c r="R11" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="S11" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="T11" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="47"/>
-    </row>
-    <row r="13" spans="1:21" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" s="53">
-        <v>7</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="K13" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="P13" s="40" t="s">
+      <c r="M13" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="44"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="17">
         <v>6</v>
       </c>
-      <c r="R13" s="18" t="s">
-        <v>142</v>
+      <c r="R13" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>182</v>
+        <v>137</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="U13" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="60" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="47"/>
-    </row>
-    <row r="15" spans="1:21" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="C14" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="50">
+        <v>5</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>6</v>
+      </c>
+      <c r="R14" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="S14" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="T14" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="47"/>
-    </row>
-    <row r="16" spans="1:21" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="C15" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" s="49">
+        <v>6</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="24"/>
+      <c r="P15" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="31">
+        <v>6</v>
+      </c>
+      <c r="R15" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="S15" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="T15" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="U15" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="G16" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="H16" s="53">
-        <v>8</v>
-      </c>
-      <c r="I16" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="K16" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="46"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>6</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="T16" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="C16" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="17"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="H17" s="53">
-        <v>9</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>206</v>
-      </c>
-      <c r="K17" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>6</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="T17" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="C17" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="17"/>
+    </row>
+    <row r="18" spans="1:21" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="H18" s="52">
-        <v>10</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="25"/>
-      <c r="P18" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="32">
-        <v>6</v>
-      </c>
-      <c r="R18" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="S18" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="T18" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="U18" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="17"/>
+    </row>
+    <row r="19" spans="1:21" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>122</v>
       </c>
@@ -2333,30 +2178,60 @@
         <v>123</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>158</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="17"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="50">
+        <v>7</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="44"/>
+      <c r="O19" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>6</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="T19" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="U19" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>122</v>
       </c>
@@ -2364,32 +2239,58 @@
         <v>123</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="50">
+        <v>8</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>5</v>
+      </c>
+      <c r="R20" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="S20" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="T20" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="17"/>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>122</v>
       </c>
@@ -2397,34 +2298,58 @@
         <v>123</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
+        <v>132</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="50">
+        <v>9</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="44"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="17"/>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>6</v>
+      </c>
+      <c r="R21" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="S21" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="T21" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="U21" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>122</v>
       </c>
@@ -2432,1114 +2357,870 @@
         <v>123</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="53">
-        <v>11</v>
-      </c>
-      <c r="I22" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" s="50">
+        <v>10</v>
+      </c>
+      <c r="I22" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" s="44" t="s">
+      <c r="J22" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="O22" s="10"/>
+      <c r="L22" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="55"/>
       <c r="P22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="17">
         <v>6</v>
       </c>
-      <c r="R22" s="18" t="s">
-        <v>142</v>
+      <c r="R22" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="T22" s="19" t="s">
-        <v>150</v>
+        <v>139</v>
+      </c>
+      <c r="T22" s="62" t="s">
+        <v>144</v>
       </c>
       <c r="U22" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="53">
-        <v>12</v>
-      </c>
-      <c r="I23" s="42" t="s">
+      <c r="C23" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="49">
+        <v>11</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="K23" s="44" t="s">
+      <c r="J23" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="10"/>
+      <c r="L23" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="24"/>
       <c r="P23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="31">
         <v>6</v>
       </c>
-      <c r="R23" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S23" s="17" t="s">
+      <c r="R23" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="T23" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="T23" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="U23" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="U23" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
+      <c r="C24" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
       <c r="Q24" s="17"/>
-      <c r="R24" s="18"/>
+      <c r="R24" s="17"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="19"/>
+      <c r="T24" s="62"/>
       <c r="U24" s="17"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:21" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="10" t="s">
+      <c r="C25" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="17"/>
+    </row>
+    <row r="26" spans="1:21" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="53">
-        <v>13</v>
-      </c>
-      <c r="I25" s="42" t="s">
+      <c r="H26" s="50">
+        <v>12</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="K25" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="45" t="s">
+      <c r="L26" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="17">
-        <v>6</v>
-      </c>
-      <c r="R25" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S25" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="T25" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="U25" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" s="53">
-        <v>14</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J26" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="K26" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="N26" s="46"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10" t="s">
+      <c r="M26" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="44"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="17">
         <v>6</v>
       </c>
-      <c r="R26" s="18" t="s">
-        <v>142</v>
+      <c r="R26" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="T26" s="19" t="s">
-        <v>192</v>
+        <v>137</v>
+      </c>
+      <c r="T26" s="62" t="s">
+        <v>156</v>
       </c>
       <c r="U26" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="C27" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" s="50">
+        <v>13</v>
+      </c>
+      <c r="I27" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>6</v>
+      </c>
+      <c r="R27" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="S27" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="T27" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="U27" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" s="50">
+        <v>14</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="K28" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="31">
+        <v>6</v>
+      </c>
+      <c r="R28" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="S28" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="T28" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="U28" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="17"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="E29" s="35"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" s="50">
+        <v>15</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="O29" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="P29" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="45">
+        <v>7</v>
+      </c>
+      <c r="R29" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="S29" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="T29" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="U29" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B30" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="C30" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="H30" s="50">
+        <v>16</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="44"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="45">
+        <v>8</v>
+      </c>
+      <c r="R30" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="S30" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="T30" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="U30" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="50">
+        <v>17</v>
+      </c>
+      <c r="I31" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="O31" s="59"/>
+      <c r="P31" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="45">
+        <v>9</v>
+      </c>
+      <c r="R31" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="S31" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="T31" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="U31" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="17"/>
-    </row>
-    <row r="29" spans="1:21" s="59" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="E32" s="21"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="50">
+        <v>18</v>
+      </c>
+      <c r="I32" s="40"/>
+      <c r="J32" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="K32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="31"/>
+    </row>
+    <row r="33" spans="1:21" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B33" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="C33" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29" s="53">
-        <v>15</v>
-      </c>
-      <c r="I29" s="42" t="s">
+      <c r="E33" s="21"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="50">
+        <v>19</v>
+      </c>
+      <c r="I33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="K29" s="44" t="s">
+      <c r="J33" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="K33" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="L33" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="O29" s="58"/>
-      <c r="P29" s="10" t="s">
+      <c r="M33" s="30"/>
+      <c r="N33" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="24"/>
+      <c r="P33" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q33" s="31">
         <v>6</v>
       </c>
-      <c r="R29" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S29" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="T29" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="U29" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="R33" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="S33" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="T33" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="U33" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="52">
-        <v>16</v>
-      </c>
-      <c r="I30" s="27" t="s">
+      <c r="C34" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="50">
         <v>20</v>
       </c>
-      <c r="J30" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="K30" s="29" t="s">
+      <c r="I34" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="30" t="s">
+      <c r="J34" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="32">
+      <c r="M34" s="30"/>
+      <c r="N34" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="O34" s="24"/>
+      <c r="P34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="31">
         <v>6</v>
       </c>
-      <c r="R30" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="S30" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="T30" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="U30" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="17"/>
-    </row>
-    <row r="32" spans="1:21" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="37" t="s">
+      <c r="R34" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" s="53">
-        <v>17</v>
-      </c>
-      <c r="I32" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="K32" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="N32" s="46"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="17">
-        <v>6</v>
-      </c>
-      <c r="R32" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S32" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="T32" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="U32" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="H33" s="53">
-        <v>18</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="K33" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="N33" s="46"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" s="17">
-        <v>6</v>
-      </c>
-      <c r="R33" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S33" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="T33" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="U33" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="H34" s="53">
-        <v>19</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="K34" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="M34" s="46"/>
-      <c r="N34" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" s="17">
-        <v>6</v>
-      </c>
-      <c r="R34" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="S34" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="T34" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="U34" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H35" s="52">
-        <v>20</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="K35" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="32">
-        <v>6</v>
-      </c>
-      <c r="R35" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="S35" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="T35" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="U35" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="H36" s="53">
-        <v>21</v>
-      </c>
-      <c r="I36" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="K36" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="M36" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="N36" s="46"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" s="47">
-        <v>6</v>
-      </c>
-      <c r="R36" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S36" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="T36" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="U36" s="47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41" t="s">
+      <c r="S34" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="H37" s="53">
-        <v>22</v>
-      </c>
-      <c r="I37" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="43" t="s">
+      <c r="T34" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="U34" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="K37" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="O37" s="63" t="s">
-        <v>196</v>
-      </c>
-      <c r="P37" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" s="47">
-        <v>6</v>
-      </c>
-      <c r="R37" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S37" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="T37" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="U37" s="47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="H38" s="53">
-        <v>23</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="K38" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="47">
-        <v>6</v>
-      </c>
-      <c r="R38" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S38" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="T38" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="U38" s="47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>210</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="H39" s="53">
-        <v>24</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="K39" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="O39" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="P39" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" s="47">
-        <v>6</v>
-      </c>
-      <c r="R39" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="S39" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="T39" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="U39" s="47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="52">
-        <v>25</v>
-      </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="K40" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="32"/>
-    </row>
-    <row r="41" spans="1:21" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" s="52">
-        <v>26</v>
-      </c>
-      <c r="I41" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="K41" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="25"/>
-      <c r="P41" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="32">
-        <v>6</v>
-      </c>
-      <c r="R41" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="S41" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="T41" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="U41" s="32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="H42" s="52">
-        <v>27</v>
-      </c>
-      <c r="I42" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="K42" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="O42" s="25"/>
-      <c r="P42" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="32">
-        <v>6</v>
-      </c>
-      <c r="R42" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="S42" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="T42" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="U42" s="32" t="s">
-        <v>148</v>
-      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="17"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="17"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="17"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="17"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="17"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="17"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="17"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="17"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
@@ -3549,7 +3230,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="10"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="51"/>
+      <c r="H43" s="48"/>
       <c r="I43" s="12"/>
       <c r="J43" s="13"/>
       <c r="K43" s="14"/>
@@ -3559,9 +3240,9 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="17"/>
-      <c r="R43" s="18"/>
+      <c r="R43" s="17"/>
       <c r="S43" s="17"/>
-      <c r="T43" s="19"/>
+      <c r="T43" s="18"/>
       <c r="U43" s="17"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3572,7 +3253,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="10"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="51"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="12"/>
       <c r="J44" s="13"/>
       <c r="K44" s="14"/>
@@ -3582,9 +3263,9 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="17"/>
-      <c r="R44" s="18"/>
+      <c r="R44" s="17"/>
       <c r="S44" s="17"/>
-      <c r="T44" s="19"/>
+      <c r="T44" s="18"/>
       <c r="U44" s="17"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3595,7 +3276,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="51"/>
+      <c r="H45" s="48"/>
       <c r="I45" s="12"/>
       <c r="J45" s="13"/>
       <c r="K45" s="14"/>
@@ -3605,9 +3286,9 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="17"/>
-      <c r="R45" s="18"/>
+      <c r="R45" s="17"/>
       <c r="S45" s="17"/>
-      <c r="T45" s="19"/>
+      <c r="T45" s="18"/>
       <c r="U45" s="17"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3618,7 +3299,7 @@
       <c r="E46" s="7"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="51"/>
+      <c r="H46" s="48"/>
       <c r="I46" s="12"/>
       <c r="J46" s="13"/>
       <c r="K46" s="14"/>
@@ -3628,9 +3309,9 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="17"/>
-      <c r="R46" s="18"/>
+      <c r="R46" s="17"/>
       <c r="S46" s="17"/>
-      <c r="T46" s="19"/>
+      <c r="T46" s="18"/>
       <c r="U46" s="17"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3641,7 +3322,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="10"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="51"/>
+      <c r="H47" s="48"/>
       <c r="I47" s="12"/>
       <c r="J47" s="13"/>
       <c r="K47" s="14"/>
@@ -3651,9 +3332,9 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="17"/>
-      <c r="R47" s="18"/>
+      <c r="R47" s="17"/>
       <c r="S47" s="17"/>
-      <c r="T47" s="19"/>
+      <c r="T47" s="18"/>
       <c r="U47" s="17"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3664,7 +3345,7 @@
       <c r="E48" s="7"/>
       <c r="F48" s="10"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="51"/>
+      <c r="H48" s="48"/>
       <c r="I48" s="12"/>
       <c r="J48" s="13"/>
       <c r="K48" s="14"/>
@@ -3674,9 +3355,9 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="17"/>
-      <c r="R48" s="18"/>
+      <c r="R48" s="17"/>
       <c r="S48" s="17"/>
-      <c r="T48" s="19"/>
+      <c r="T48" s="18"/>
       <c r="U48" s="17"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3687,7 +3368,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="10"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="51"/>
+      <c r="H49" s="48"/>
       <c r="I49" s="12"/>
       <c r="J49" s="13"/>
       <c r="K49" s="14"/>
@@ -3697,9 +3378,9 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="17"/>
-      <c r="R49" s="18"/>
+      <c r="R49" s="17"/>
       <c r="S49" s="17"/>
-      <c r="T49" s="19"/>
+      <c r="T49" s="18"/>
       <c r="U49" s="17"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3710,7 +3391,7 @@
       <c r="E50" s="7"/>
       <c r="F50" s="10"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="51"/>
+      <c r="H50" s="48"/>
       <c r="I50" s="12"/>
       <c r="J50" s="13"/>
       <c r="K50" s="14"/>
@@ -3720,9 +3401,9 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="17"/>
-      <c r="R50" s="18"/>
+      <c r="R50" s="17"/>
       <c r="S50" s="17"/>
-      <c r="T50" s="19"/>
+      <c r="T50" s="18"/>
       <c r="U50" s="17"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3733,7 +3414,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="10"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="51"/>
+      <c r="H51" s="48"/>
       <c r="I51" s="12"/>
       <c r="J51" s="13"/>
       <c r="K51" s="14"/>
@@ -3743,9 +3424,9 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="17"/>
-      <c r="R51" s="18"/>
+      <c r="R51" s="17"/>
       <c r="S51" s="17"/>
-      <c r="T51" s="19"/>
+      <c r="T51" s="18"/>
       <c r="U51" s="17"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3756,7 +3437,7 @@
       <c r="E52" s="7"/>
       <c r="F52" s="10"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="51"/>
+      <c r="H52" s="48"/>
       <c r="I52" s="12"/>
       <c r="J52" s="13"/>
       <c r="K52" s="14"/>
@@ -3766,9 +3447,9 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="17"/>
-      <c r="R52" s="18"/>
+      <c r="R52" s="17"/>
       <c r="S52" s="17"/>
-      <c r="T52" s="19"/>
+      <c r="T52" s="18"/>
       <c r="U52" s="17"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3779,7 +3460,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="10"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="51"/>
+      <c r="H53" s="48"/>
       <c r="I53" s="12"/>
       <c r="J53" s="13"/>
       <c r="K53" s="14"/>
@@ -3789,9 +3470,9 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="17"/>
-      <c r="R53" s="18"/>
+      <c r="R53" s="17"/>
       <c r="S53" s="17"/>
-      <c r="T53" s="19"/>
+      <c r="T53" s="18"/>
       <c r="U53" s="17"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3802,7 +3483,7 @@
       <c r="E54" s="7"/>
       <c r="F54" s="10"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="51"/>
+      <c r="H54" s="48"/>
       <c r="I54" s="12"/>
       <c r="J54" s="13"/>
       <c r="K54" s="14"/>
@@ -3812,9 +3493,9 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="17"/>
-      <c r="R54" s="18"/>
+      <c r="R54" s="17"/>
       <c r="S54" s="17"/>
-      <c r="T54" s="19"/>
+      <c r="T54" s="18"/>
       <c r="U54" s="17"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3825,7 +3506,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="10"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="51"/>
+      <c r="H55" s="48"/>
       <c r="I55" s="12"/>
       <c r="J55" s="13"/>
       <c r="K55" s="14"/>
@@ -3835,9 +3516,9 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="17"/>
-      <c r="R55" s="18"/>
+      <c r="R55" s="17"/>
       <c r="S55" s="17"/>
-      <c r="T55" s="19"/>
+      <c r="T55" s="18"/>
       <c r="U55" s="17"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3848,7 +3529,7 @@
       <c r="E56" s="7"/>
       <c r="F56" s="10"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="51"/>
+      <c r="H56" s="48"/>
       <c r="I56" s="12"/>
       <c r="J56" s="13"/>
       <c r="K56" s="14"/>
@@ -3858,9 +3539,9 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="17"/>
-      <c r="R56" s="18"/>
+      <c r="R56" s="17"/>
       <c r="S56" s="17"/>
-      <c r="T56" s="19"/>
+      <c r="T56" s="18"/>
       <c r="U56" s="17"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3871,7 +3552,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="10"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="51"/>
+      <c r="H57" s="48"/>
       <c r="I57" s="12"/>
       <c r="J57" s="13"/>
       <c r="K57" s="14"/>
@@ -3881,9 +3562,9 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="17"/>
-      <c r="R57" s="18"/>
+      <c r="R57" s="17"/>
       <c r="S57" s="17"/>
-      <c r="T57" s="19"/>
+      <c r="T57" s="18"/>
       <c r="U57" s="17"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3894,7 +3575,7 @@
       <c r="E58" s="7"/>
       <c r="F58" s="10"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="51"/>
+      <c r="H58" s="48"/>
       <c r="I58" s="12"/>
       <c r="J58" s="13"/>
       <c r="K58" s="14"/>
@@ -3904,9 +3585,9 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="17"/>
-      <c r="R58" s="18"/>
+      <c r="R58" s="17"/>
       <c r="S58" s="17"/>
-      <c r="T58" s="19"/>
+      <c r="T58" s="18"/>
       <c r="U58" s="17"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3917,7 +3598,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="10"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="51"/>
+      <c r="H59" s="48"/>
       <c r="I59" s="12"/>
       <c r="J59" s="13"/>
       <c r="K59" s="14"/>
@@ -3927,9 +3608,9 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="17"/>
-      <c r="R59" s="18"/>
+      <c r="R59" s="17"/>
       <c r="S59" s="17"/>
-      <c r="T59" s="19"/>
+      <c r="T59" s="18"/>
       <c r="U59" s="17"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3940,7 +3621,7 @@
       <c r="E60" s="7"/>
       <c r="F60" s="10"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="51"/>
+      <c r="H60" s="48"/>
       <c r="I60" s="12"/>
       <c r="J60" s="13"/>
       <c r="K60" s="14"/>
@@ -3950,9 +3631,9 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="17"/>
-      <c r="R60" s="18"/>
+      <c r="R60" s="17"/>
       <c r="S60" s="17"/>
-      <c r="T60" s="19"/>
+      <c r="T60" s="18"/>
       <c r="U60" s="17"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3963,7 +3644,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="10"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="51"/>
+      <c r="H61" s="48"/>
       <c r="I61" s="12"/>
       <c r="J61" s="13"/>
       <c r="K61" s="14"/>
@@ -3973,9 +3654,9 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="17"/>
-      <c r="R61" s="18"/>
+      <c r="R61" s="17"/>
       <c r="S61" s="17"/>
-      <c r="T61" s="19"/>
+      <c r="T61" s="18"/>
       <c r="U61" s="17"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3986,7 +3667,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="10"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="51"/>
+      <c r="H62" s="48"/>
       <c r="I62" s="12"/>
       <c r="J62" s="13"/>
       <c r="K62" s="14"/>
@@ -3996,9 +3677,9 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="17"/>
-      <c r="R62" s="18"/>
+      <c r="R62" s="17"/>
       <c r="S62" s="17"/>
-      <c r="T62" s="19"/>
+      <c r="T62" s="18"/>
       <c r="U62" s="17"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4009,7 +3690,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="10"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="51"/>
+      <c r="H63" s="48"/>
       <c r="I63" s="12"/>
       <c r="J63" s="13"/>
       <c r="K63" s="14"/>
@@ -4019,9 +3700,9 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="17"/>
-      <c r="R63" s="18"/>
+      <c r="R63" s="17"/>
       <c r="S63" s="17"/>
-      <c r="T63" s="19"/>
+      <c r="T63" s="18"/>
       <c r="U63" s="17"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4032,7 +3713,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="10"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="51"/>
+      <c r="H64" s="48"/>
       <c r="I64" s="12"/>
       <c r="J64" s="13"/>
       <c r="K64" s="14"/>
@@ -4042,393 +3723,217 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="17"/>
-      <c r="R64" s="18"/>
+      <c r="R64" s="17"/>
       <c r="S64" s="17"/>
-      <c r="T64" s="19"/>
+      <c r="T64" s="18"/>
       <c r="U64" s="17"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="17"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="17"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="17"/>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="17"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="17"/>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="17"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="19"/>
-      <c r="U67" s="17"/>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="17"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="17"/>
-      <c r="T68" s="19"/>
-      <c r="U68" s="17"/>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="17"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="17"/>
-      <c r="T69" s="19"/>
-      <c r="U69" s="17"/>
-    </row>
-    <row r="70" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="17"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="17"/>
-      <c r="T70" s="19"/>
-      <c r="U70" s="17"/>
-    </row>
-    <row r="71" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="17"/>
-    </row>
-    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="17"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="17"/>
-    </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4584,81 +4089,36 @@
     <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="283" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="284" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="285" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="286" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:U42"/>
+  <autoFilter ref="A2:U34"/>
   <mergeCells count="20">
-    <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="I1:I2"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O13" r:id="rId1"/>
-    <hyperlink ref="O37" r:id="rId2" display="http://www.uv.mx/cienciahombre/revistae/vol22num3/articulos/distribucion/"/>
-    <hyperlink ref="O39" r:id="rId3"/>
+    <hyperlink ref="O29" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$E$1:$E$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>M3:M72</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$E$14:$E$48</xm:f>
-          </x14:formula1>
-          <xm:sqref>N3:N72</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$A$1:$A$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A72</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$D$1:$D$2</xm:f>
-          </x14:formula1>
-          <xm:sqref>I3:I72 P3:P72 K3:K72</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>DATOS!$B$1:$B$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>L3:L72</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4670,7 +4130,7 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -6597,7 +6057,8 @@
       <c r="L133" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="duoSM2/GxQjtLYdKATObDXlCVo4hGTfBwoNvMjp43nnNpPoG3zCSd176iq0wGi+jtJb5dBDCNBT69VkNoNId2w==" saltValue="Qr58l5OQKNMYax0PAe5thA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I134:I1283">
       <formula1>$B$1:$B$7</formula1>

--- a/fuentes/contenidos/grado09/guion08/Escaleta_CN_09_08_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion08/Escaleta_CN_09_08_CO.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Planeta\09_08\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="CN_09_08_CO" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CN_09_08_CO!$A$2:$U$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CN_09_08_CO!$P$1:$P$278</definedName>
   </definedNames>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="215">
   <si>
     <t>Asignatura</t>
   </si>
@@ -666,6 +661,9 @@
   </si>
   <si>
     <t>Actividad de investigación sobre las especies sombrilla, sus áreas de distribución y su importancia para la conservación</t>
+  </si>
+  <si>
+    <t>RF</t>
   </si>
 </sst>
 </file>
@@ -1026,15 +1024,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1045,6 +1034,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1108,7 +1106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1143,7 +1141,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1352,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U278"/>
+  <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,29 +1419,29 @@
       <c r="L1" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="85" t="s">
+      <c r="M1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="85"/>
-      <c r="O1" s="83" t="s">
+      <c r="N1" s="89"/>
+      <c r="O1" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="83" t="s">
+      <c r="P1" s="87" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="86" t="s">
+      <c r="Q1" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="86" t="s">
+      <c r="R1" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="86" t="s">
+      <c r="S1" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="86" t="s">
+      <c r="U1" s="83" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1466,13 +1464,13 @@
       <c r="N2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="87"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="84"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1692,16 +1690,16 @@
         <v>6</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="S8" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T8" s="66" t="s">
         <v>196</v>
       </c>
       <c r="U8" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2219,16 +2217,16 @@
         <v>6</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="T19" s="67" t="s">
         <v>197</v>
       </c>
       <c r="U19" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2340,13 +2338,13 @@
         <v>136</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="T21" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="T21" s="18" t="s">
         <v>199</v>
       </c>
       <c r="U21" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3728,371 +3726,193 @@
       <c r="T64" s="18"/>
       <c r="U64" s="17"/>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:U34"/>
   <mergeCells count="20">
-    <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="M1:N1"/>
@@ -4112,6 +3932,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
